--- a/pred_ohlcv/54_21/2020-01-25 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 FCT ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-1579028.540085921</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1548252.119485921</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1563724.987385921</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1561799.722385921</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1446729.192527856</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1445070.392527856</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1445070.392527856</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1445070.392527856</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1443429.792527856</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1507490.119627856</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1537054.623227856</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1537054.623227856</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1537054.623227856</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1537400.223227856</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1537400.223227856</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1570659.714810889</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1570313.814810889</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1570313.814810889</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1570313.814810889</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1611163.258410889</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1628728.473910889</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1802274.190110889</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1865386.208310889</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1865404.308310889</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1865066.508310889</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1864767.808310889</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1890362.450510889</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1890035.450510889</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1903863.423010889</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1883756.813210889</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1795750.302410889</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1786972.530110889</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1786972.530110889</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1785208.430110889</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1786527.410910889</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1786527.410910889</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1769287.35377786</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1769287.35377786</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1769287.35377786</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1767308.75377786</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2112039.957850712</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2112039.957850712</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2112039.957850712</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>2087821.599050712</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2087821.599050712</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>2067194.252650712</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>2088361.951150712</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>2064262.156450712</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2031604.323050712</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2031604.323050712</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>2005978.850350712</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>1704697.232730999</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>1676618.341230999</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>1676618.341230999</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>1676618.341230999</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>1646628.298030999</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>1649788.598030999</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>1652968.398030999</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>1658290.163230999</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>1667264.367730999</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>1667264.367730999</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>1620537.767730999</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>1615098.288630999</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>1618441.888630999</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>1618441.888630999</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>1618441.888630999</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>1618441.888630999</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1149376.627630999</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1094477.355930999</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1094477.355930999</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1067328.341030999</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1119296.941330999</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1119296.941330999</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1122543.041330999</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1122936.041330999</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1153703.078330999</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1219072.191030999</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1219072.191030999</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1222388.491030999</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1222562.491030999</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>1229920.290130999</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>1229920.290130999</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>1280050.779330999</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>1280050.779330999</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>1276599.279330999</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>1284081.841730999</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>1280727.841730999</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>1277282.841730999</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>1277282.841730999</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>1277282.841730999</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>1273598.998830999</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>1277163.598830999</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>1273561.298830999</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>1269765.298830999</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>1266022.598830999</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>1269722.398830999</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>1247722.398830999</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>1247722.398830999</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>999955.1264309987</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>1003641.926430999</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>942567.8585309987</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 FCT ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-1546586.109385921</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1543946.445585921</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1561799.722385921</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1448468.592527856</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1446729.192527856</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1445070.392527856</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1445070.392527856</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1445070.392527856</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1443429.792527856</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1507490.119627856</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1537054.623227856</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1537054.623227856</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1537054.623227856</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1537400.223227856</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1537400.223227856</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1570659.714810889</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1570313.814810889</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1570313.814810889</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1570313.814810889</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1890362.450510889</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1890035.450510889</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1786972.530110889</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1786972.530110889</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1785208.430110889</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1786527.410910889</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1786527.410910889</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1769287.35377786</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1769287.35377786</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1769287.35377786</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1767308.75377786</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2112039.957850712</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2112039.957850712</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2112039.957850712</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>2087821.599050712</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2087821.599050712</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>2067194.252650712</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>2088361.951150712</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>2064262.156450712</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2031604.323050712</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2031604.323050712</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>2005978.850350712</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>1704697.232730999</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>1676618.341230999</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>1676618.341230999</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>1676618.341230999</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>1646628.298030999</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>1649788.598030999</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>1652968.398030999</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>1658290.163230999</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>1667264.367730999</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>1667264.367730999</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>1620537.767730999</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>1615098.288630999</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>1618441.888630999</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>1618441.888630999</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>1618441.888630999</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>1618441.888630999</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1149376.627630999</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1094477.355930999</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1094477.355930999</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1067328.341030999</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1119296.941330999</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1119296.941330999</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1122543.041330999</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1122936.041330999</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1153703.078330999</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1219072.191030999</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1219072.191030999</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1222388.491030999</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1222562.491030999</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1222562.491030999</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>1229920.290130999</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>1280050.779330999</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>1280050.779330999</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>1276599.279330999</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>1284081.841730999</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>1280727.841730999</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>1277282.841730999</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>1277282.841730999</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>1277282.841730999</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>1273598.998830999</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>1277163.598830999</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>1273561.298830999</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>1269765.298830999</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>1266022.598830999</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>1269722.398830999</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>1247722.398830999</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>1247722.398830999</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>999955.1264309987</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
